--- a/sputnik/personal/ee/200ee.xlsx
+++ b/sputnik/personal/ee/200ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,17 +39,32 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>?</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -135,7 +144,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -151,6 +160,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -211,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,10 +253,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -454,451 +462,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F18:F19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1">
       <c r="A2" s="4">
-        <v>43253</v>
+        <v>43366</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>9670</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>10826</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>4630</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>4977</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
-        <v>43274</v>
+        <v>43585</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>9992</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>322</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.29</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>1381.38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>4744</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.17</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>247.38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
-        <v>43316</v>
+        <v>43627</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>10320</v>
+        <v>11631</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>328</v>
+        <f>SUM(C6,-C2)</f>
+        <v>805</v>
       </c>
       <c r="E6" s="8">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F6:F11" si="0">D6*E6</f>
+        <v>3678.8500000000004</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM(F6,F7)</f>
+        <v>4340.88</v>
+      </c>
+      <c r="H6" s="12">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>4856</v>
+        <v>5254</v>
       </c>
       <c r="D7" s="3">
+        <f>SUM(C7,-C3)</f>
+        <v>277</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>263.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>662.03000000000009</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
-        <v>43366</v>
+        <v>43669</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>10826</v>
+        <v>11924</v>
       </c>
       <c r="D8" s="3">
+        <f t="shared" ref="D8:D13" si="1">SUM(C8,-C6)</f>
+        <v>293</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>506</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>2277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1315.5700000000002</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUM(F8,F9)</f>
+        <v>1578.0100000000002</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>4977</v>
+        <v>5362</v>
       </c>
       <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
+        <v>262.44</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>43699</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12300</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="1"/>
-        <v>284.35000000000002</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43585</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>1688.24</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(F10,F11)</f>
+        <v>2023.58</v>
+      </c>
+      <c r="H10" s="12">
+        <v>2023.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>335.34000000000003</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
-        <v>43627</v>
+        <v>43739</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>11631</v>
+        <v>12564</v>
       </c>
       <c r="D12" s="3">
-        <f>SUM(C12,-C8)</f>
-        <v>805</v>
+        <f t="shared" si="1"/>
+        <v>264</v>
       </c>
       <c r="E12" s="8">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" ref="F12:F17" si="2">D12*E12</f>
-        <v>3678.8500000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <f>D12*E12</f>
+        <v>1185.3600000000001</v>
+      </c>
+      <c r="G12" s="12">
+        <f>SUM(F12,F13)</f>
+        <v>1622.7600000000002</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1622.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>5254</v>
+        <v>5680</v>
       </c>
       <c r="D13" s="3">
-        <f>SUM(C13,-C9)</f>
-        <v>277</v>
+        <f t="shared" si="1"/>
+        <v>180</v>
       </c>
       <c r="E13" s="3">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="2"/>
-        <v>662.03000000000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43669</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>11924</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D19" si="3">SUM(C14,-C12)</f>
-        <v>293</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="2"/>
-        <v>1315.5700000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>5362</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="2"/>
-        <v>262.44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43699</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>12300</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="3"/>
-        <v>376</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="2"/>
-        <v>1688.24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5500</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="2"/>
-        <v>335.34000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43739</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>12564</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="3"/>
-        <v>264</v>
-      </c>
-      <c r="E18" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="6">
-        <f>D18*E18</f>
-        <v>1185.3600000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>5680</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="6">
-        <f>D19*E19</f>
+        <f>D13*E13</f>
         <v>437.40000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(G2:G13)</f>
+        <v>9565.23</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H2:H13)</f>
+        <v>9606.34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12">
+        <f>SUM(H14,-G14)</f>
+        <v>41.110000000000582</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -908,12 +826,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -922,12 +840,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/200ee.xlsx
+++ b/sputnik/personal/ee/200ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -60,11 +60,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,9 +253,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,6 +288,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -462,17 +464,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
@@ -487,7 +489,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" customHeight="1">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -513,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43366</v>
       </c>
@@ -529,7 +531,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -545,7 +547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43585</v>
       </c>
@@ -565,7 +567,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -581,7 +583,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43627</v>
       </c>
@@ -610,7 +612,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -632,7 +634,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43669</v>
       </c>
@@ -661,7 +663,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
@@ -683,7 +685,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43699</v>
       </c>
@@ -712,7 +714,7 @@
         <v>2023.58</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -734,7 +736,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43739</v>
       </c>
@@ -763,7 +765,7 @@
         <v>1622.76</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
         <v>1</v>
@@ -785,37 +787,88 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>13646</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="2">SUM(C14,-C12)</f>
+        <v>1082</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="6">
+        <f>D14*E14</f>
+        <v>4858.18</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(F14,F15)</f>
+        <v>5674.66</v>
+      </c>
+      <c r="H14" s="12">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6016</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <f>D15*E15</f>
+        <v>816.48</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="12">
-        <f>SUM(G2:G13)</f>
-        <v>9565.23</v>
-      </c>
-      <c r="H14" s="12">
-        <f>SUM(H2:H13)</f>
-        <v>9606.34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="6" t="s">
+      <c r="G16" s="12">
+        <f>SUM(G2:G15)</f>
+        <v>15239.89</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(H2:H15)</f>
+        <v>15283.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
-        <f>SUM(H14,-G14)</f>
-        <v>41.110000000000582</v>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
+        <f>SUM(H16,-G16)</f>
+        <v>43.450000000000728</v>
       </c>
     </row>
   </sheetData>
@@ -826,12 +879,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -840,12 +893,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/200ee.xlsx
+++ b/sputnik/personal/ee/200ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Т1</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>нач пени 245 дн</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -839,36 +845,60 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="6" t="s">
-        <v>11</v>
+      <c r="A16" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1163.31</v>
       </c>
       <c r="G16" s="12">
-        <f>SUM(G2:G15)</f>
-        <v>15239.89</v>
-      </c>
-      <c r="H16" s="12">
-        <f>SUM(H2:H15)</f>
-        <v>15283.34</v>
-      </c>
+        <v>1163.31</v>
+      </c>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="11"/>
+      <c r="E17" s="10"/>
       <c r="F17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="12">
+        <f>SUM(G2:G16)</f>
+        <v>16403.2</v>
+      </c>
+      <c r="H17" s="12">
+        <f>SUM(H2:H16)</f>
+        <v>15283.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12">
-        <f>SUM(H16,-G16)</f>
-        <v>43.450000000000728</v>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12">
+        <f>SUM(H17,-G17)</f>
+        <v>-1119.8600000000006</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/200ee.xlsx
+++ b/sputnik/personal/ee/200ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>остаток</t>
-  </si>
-  <si>
-    <t>Т</t>
-  </si>
-  <si>
-    <t>нач пени 245 дн</t>
   </si>
 </sst>
 </file>
@@ -474,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -804,7 +798,7 @@
         <v>13646</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D15" si="2">SUM(C14,-C12)</f>
+        <f t="shared" ref="D14:D17" si="2">SUM(C14,-C12)</f>
         <v>1082</v>
       </c>
       <c r="E14" s="8">
@@ -846,59 +840,86 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43985</v>
+        <v>44032</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
+        <v>13911</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
+        <v>265</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <v>1163.31</v>
+        <f>D16*E16</f>
+        <v>1248.1500000000001</v>
       </c>
       <c r="G16" s="12">
-        <v>1163.31</v>
-      </c>
-      <c r="H16" s="12"/>
+        <f>SUM(F16,F17)</f>
+        <v>1498.0500000000002</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1430</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="12">
-        <f>SUM(G2:G16)</f>
-        <v>16403.2</v>
-      </c>
-      <c r="H17" s="12">
-        <f>SUM(H2:H16)</f>
-        <v>15283.34</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6114</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f>D17*E17</f>
+        <v>249.89999999999998</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="11"/>
+      <c r="E18" s="10"/>
       <c r="F18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="12">
+        <f>SUM(G2:G17)</f>
+        <v>16737.939999999999</v>
+      </c>
+      <c r="H18" s="12">
+        <f>SUM(H2:H17)</f>
+        <v>16713.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12">
-        <f>SUM(H17,-G17)</f>
-        <v>-1119.8600000000006</v>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
+        <f>SUM(H18,-G18)</f>
+        <v>-24.599999999998545</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/200ee.xlsx
+++ b/sputnik/personal/ee/200ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -468,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,7 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f>D12*E12</f>
+        <f t="shared" ref="F12:F17" si="2">D12*E12</f>
         <v>1185.3600000000001</v>
       </c>
       <c r="G12" s="12">
@@ -781,7 +781,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f>D13*E13</f>
+        <f t="shared" si="2"/>
         <v>437.40000000000003</v>
       </c>
       <c r="G13" s="12"/>
@@ -798,14 +798,14 @@
         <v>13646</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D17" si="2">SUM(C14,-C12)</f>
+        <f t="shared" ref="D14:D17" si="3">SUM(C14,-C12)</f>
         <v>1082</v>
       </c>
       <c r="E14" s="8">
         <v>4.49</v>
       </c>
       <c r="F14" s="6">
-        <f>D14*E14</f>
+        <f t="shared" si="2"/>
         <v>4858.18</v>
       </c>
       <c r="G14" s="12">
@@ -825,14 +825,14 @@
         <v>6016</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>336</v>
       </c>
       <c r="E15" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="6">
-        <f>D15*E15</f>
+        <f t="shared" si="2"/>
         <v>816.48</v>
       </c>
       <c r="G15" s="12"/>
@@ -849,14 +849,14 @@
         <v>13911</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>265</v>
       </c>
       <c r="E16" s="8">
         <v>4.71</v>
       </c>
       <c r="F16" s="6">
-        <f>D16*E16</f>
+        <f t="shared" si="2"/>
         <v>1248.1500000000001</v>
       </c>
       <c r="G16" s="12">
@@ -876,49 +876,100 @@
         <v>6114</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="6">
-        <f>D17*E17</f>
+        <f t="shared" si="2"/>
         <v>249.89999999999998</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="6" t="s">
+      <c r="A18" s="4">
+        <v>44088</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>14580</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="4">SUM(C18,-C16)</f>
+        <v>669</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="5">D18*E18</f>
+        <v>3150.99</v>
+      </c>
+      <c r="G18" s="12">
+        <f>SUM(F18,F19)</f>
+        <v>3625.29</v>
+      </c>
+      <c r="H18" s="12">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6300</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="5"/>
+        <v>474.29999999999995</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G20" s="12">
         <f>SUM(G2:G17)</f>
         <v>16737.939999999999</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H20" s="12">
         <f>SUM(H2:H17)</f>
         <v>16713.34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="6" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12">
+        <f>SUM(H20,-G20)</f>
         <v>-24.599999999998545</v>
       </c>
     </row>

--- a/sputnik/personal/ee/200ee.xlsx
+++ b/sputnik/personal/ee/200ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -468,10 +468,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H6" sqref="H4:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -941,36 +941,138 @@
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6" t="s">
+      <c r="A20" s="4">
+        <v>44123</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>15040</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="6">SUM(C20,-C18)</f>
+        <v>460</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="7">D20*E20</f>
+        <v>2166.6</v>
+      </c>
+      <c r="G20" s="12">
+        <f>SUM(F20,F21)</f>
+        <v>2658.75</v>
+      </c>
+      <c r="H20" s="12">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6493</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="6"/>
+        <v>193</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="7"/>
+        <v>492.15</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44148</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>15380</v>
+      </c>
+      <c r="D22" s="3">
+        <f>SUM(C22,-C20)</f>
+        <v>340</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="8">D22*E22</f>
+        <v>1601.4</v>
+      </c>
+      <c r="G22" s="12">
+        <f>SUM(F22,F23)</f>
+        <v>1976.25</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6640</v>
+      </c>
+      <c r="D23" s="3">
+        <f>SUM(C23,-C21)</f>
+        <v>147</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="8"/>
+        <v>374.84999999999997</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="12">
-        <f>SUM(G2:G17)</f>
-        <v>16737.939999999999</v>
-      </c>
-      <c r="H20" s="12">
-        <f>SUM(H2:H17)</f>
-        <v>16713.34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="6" t="s">
+      <c r="G24" s="12">
+        <f>SUM(G2:G23)</f>
+        <v>24998.23</v>
+      </c>
+      <c r="H24" s="12">
+        <f>SUM(H2:H23)</f>
+        <v>24853.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12">
-        <f>SUM(H20,-G20)</f>
-        <v>-24.599999999998545</v>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12">
+        <f>SUM(H24,-G24)</f>
+        <v>-144.88999999999942</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/200ee.xlsx
+++ b/sputnik/personal/ee/200ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +91,26 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -127,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -147,6 +160,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,31 +485,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44193</v>
+        <v>44302</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>16402</v>
+        <v>20039</v>
       </c>
       <c r="D2" s="3">
-        <f>SUM(C2,-C4)</f>
-        <v>1022</v>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>1089</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F13" si="0">D2*E2</f>
-        <v>4813.62</v>
-      </c>
-      <c r="G2" s="8">
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>5129.1899999999996</v>
+      </c>
+      <c r="G2" s="11">
         <f>SUM(F2,F3)</f>
-        <v>6055.4699999999993</v>
-      </c>
-      <c r="H2" s="8">
-        <v>6057</v>
+        <v>6610.74</v>
+      </c>
+      <c r="H2" s="11">
+        <v>6620</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -504,49 +518,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>7127</v>
+        <v>8982</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(C3,-C5)</f>
-        <v>487</v>
+        <f t="shared" si="0"/>
+        <v>581</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>1241.8499999999999</v>
+        <f t="shared" si="1"/>
+        <v>1481.55</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44148</v>
+        <v>44258</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>15380</v>
+        <v>18950</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C6)</f>
-        <v>340</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>940</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>1601.4</v>
-      </c>
-      <c r="G4" s="8">
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>4427.3999999999996</v>
+      </c>
+      <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>1976.25</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1980</v>
+        <v>5646.2999999999993</v>
+      </c>
+      <c r="H4" s="11">
+        <v>4085</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -555,49 +569,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>6640</v>
+        <v>8401</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C7)</f>
-        <v>147</v>
+        <f t="shared" si="2"/>
+        <v>478</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>374.84999999999997</v>
+        <f t="shared" si="3"/>
+        <v>1218.8999999999999</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44123</v>
+        <v>44235</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>15040</v>
+        <v>18010</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D13" si="1">SUM(C6,-C8)</f>
-        <v>460</v>
+        <f t="shared" ref="D6:D11" si="4">SUM(C6,-C8)</f>
+        <v>1608</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>2166.6</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>7573.68</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" ref="G6:G12" si="2">SUM(F6,F7)</f>
-        <v>2658.75</v>
+        <f>SUM(F6,F7)</f>
+        <v>9603.48</v>
       </c>
       <c r="H6" s="8">
-        <v>2700</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -606,151 +620,151 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>6493</v>
+        <v>7923</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>193</v>
+        <f t="shared" si="4"/>
+        <v>796</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>492.15</v>
+        <f t="shared" si="5"/>
+        <v>2029.8</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44088</v>
+        <v>44193</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>14580</v>
+        <v>16402</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>669</v>
+        <f t="shared" si="4"/>
+        <v>1022</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>3150.99</v>
+        <f t="shared" ref="F8:F19" si="6">D8*E8</f>
+        <v>4813.62</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="2"/>
-        <v>3625.29</v>
+        <f>SUM(F8,F9)</f>
+        <v>6055.4699999999993</v>
       </c>
       <c r="H8" s="8">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>6300</v>
+        <v>7127</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>186</v>
+        <f t="shared" si="4"/>
+        <v>487</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>474.29999999999995</v>
+        <f t="shared" si="6"/>
+        <v>1241.8499999999999</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44032</v>
+        <v>44148</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>13911</v>
+        <v>15380</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>265</v>
+        <f t="shared" si="4"/>
+        <v>340</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>1248.1500000000001</v>
+        <f t="shared" si="6"/>
+        <v>1601.4</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="2"/>
-        <v>1498.0500000000002</v>
+        <f>SUM(F10,F11)</f>
+        <v>1976.25</v>
       </c>
       <c r="H10" s="8">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>6114</v>
+        <v>6640</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>98</v>
+        <f t="shared" si="4"/>
+        <v>147</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>249.89999999999998</v>
-      </c>
-      <c r="G11" s="3"/>
+        <f t="shared" si="6"/>
+        <v>374.84999999999997</v>
+      </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43985</v>
+        <v>44123</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>13646</v>
+        <v>15040</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>1082</v>
+        <f t="shared" ref="D12:D19" si="7">SUM(C12,-C14)</f>
+        <v>460</v>
       </c>
       <c r="E12" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>4858.18</v>
+        <f t="shared" si="6"/>
+        <v>2166.6</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="2"/>
-        <v>5674.66</v>
+        <f t="shared" ref="G12:G18" si="8">SUM(F12,F13)</f>
+        <v>2658.75</v>
       </c>
       <c r="H12" s="8">
-        <v>5677</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -759,67 +773,234 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>6016</v>
+        <v>6493</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>336</v>
+        <f t="shared" si="7"/>
+        <v>193</v>
       </c>
       <c r="E13" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>816.48</v>
+        <f t="shared" si="6"/>
+        <v>492.15</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43739</v>
+        <v>44088</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10">
-        <v>12564</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="C14" s="3">
+        <v>14580</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="7"/>
+        <v>669</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="6"/>
+        <v>3150.99</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="8"/>
+        <v>3625.29</v>
+      </c>
+      <c r="H14" s="8">
+        <v>3460</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="3">
+        <v>6300</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="7"/>
+        <v>186</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="6"/>
+        <v>474.29999999999995</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44032</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13911</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="7"/>
+        <v>265</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="6"/>
+        <v>1248.1500000000001</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="8"/>
+        <v>1498.0500000000002</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6114</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="7"/>
+        <v>98</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="6"/>
+        <v>249.89999999999998</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>13646</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="7"/>
+        <v>1082</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="6"/>
+        <v>4858.18</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="8"/>
+        <v>5674.66</v>
+      </c>
+      <c r="H18" s="8">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6016</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="7"/>
+        <v>336</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="6"/>
+        <v>816.48</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>43739</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10">
+        <v>12564</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10">
         <v>5680</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/200ee.xlsx
+++ b/sputnik/personal/ee/200ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,31 +485,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44302</v>
+        <v>44340</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>20039</v>
+        <v>20586</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>1089</v>
+        <v>547</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>5129.1899999999996</v>
+        <v>2576.37</v>
       </c>
       <c r="G2" s="11">
         <f>SUM(F2,F3)</f>
-        <v>6610.74</v>
+        <v>3160.3199999999997</v>
       </c>
       <c r="H2" s="11">
-        <v>6620</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -518,49 +518,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>8982</v>
+        <v>9211</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>581</v>
+        <v>229</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>1481.55</v>
+        <v>583.94999999999993</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44258</v>
+        <v>44302</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>18950</v>
+        <v>20039</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>940</v>
+        <v>1089</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>4427.3999999999996</v>
+        <v>5129.1899999999996</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>5646.2999999999993</v>
+        <v>6610.74</v>
       </c>
       <c r="H4" s="11">
-        <v>4085</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -569,49 +569,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>8401</v>
+        <v>8982</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>478</v>
+        <v>581</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>1218.8999999999999</v>
+        <v>1481.55</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44235</v>
+        <v>44258</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>18010</v>
+        <v>18950</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D11" si="4">SUM(C6,-C8)</f>
-        <v>1608</v>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
+        <v>940</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>7573.68</v>
-      </c>
-      <c r="G6" s="8">
+        <v>4427.3999999999996</v>
+      </c>
+      <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>9603.48</v>
-      </c>
-      <c r="H6" s="8">
-        <v>9600</v>
+        <v>5646.2999999999993</v>
+      </c>
+      <c r="H6" s="11">
+        <v>4085</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -620,49 +620,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>7923</v>
+        <v>8401</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>796</v>
+        <v>478</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>2029.8</v>
+        <v>1218.8999999999999</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44193</v>
+        <v>44235</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>16402</v>
+        <v>18010</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="4"/>
-        <v>1022</v>
+        <f t="shared" ref="D8:D13" si="6">SUM(C8,-C10)</f>
+        <v>1608</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F19" si="6">D8*E8</f>
-        <v>4813.62</v>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>7573.68</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>6055.4699999999993</v>
+        <v>9603.48</v>
       </c>
       <c r="H8" s="8">
-        <v>6057</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -671,49 +671,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>7127</v>
+        <v>7923</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="4"/>
-        <v>487</v>
+        <f t="shared" si="6"/>
+        <v>796</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="6"/>
-        <v>1241.8499999999999</v>
+        <f t="shared" si="7"/>
+        <v>2029.8</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44148</v>
+        <v>44193</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>15380</v>
+        <v>16402</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="4"/>
-        <v>340</v>
+        <f t="shared" si="6"/>
+        <v>1022</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="6"/>
-        <v>1601.4</v>
+        <f t="shared" ref="F10:F21" si="8">D10*E10</f>
+        <v>4813.62</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>1976.25</v>
+        <v>6055.4699999999993</v>
       </c>
       <c r="H10" s="8">
-        <v>1980</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -722,49 +722,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>6640</v>
+        <v>7127</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
-        <v>147</v>
+        <f t="shared" si="6"/>
+        <v>487</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="6"/>
-        <v>374.84999999999997</v>
+        <f t="shared" si="8"/>
+        <v>1241.8499999999999</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44123</v>
+        <v>44148</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>15040</v>
+        <v>15380</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D19" si="7">SUM(C12,-C14)</f>
-        <v>460</v>
+        <f t="shared" si="6"/>
+        <v>340</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="6"/>
-        <v>2166.6</v>
+        <f t="shared" si="8"/>
+        <v>1601.4</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" ref="G12:G18" si="8">SUM(F12,F13)</f>
-        <v>2658.75</v>
+        <f>SUM(F12,F13)</f>
+        <v>1976.25</v>
       </c>
       <c r="H12" s="8">
-        <v>2700</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -773,49 +773,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>6493</v>
+        <v>6640</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="7"/>
-        <v>193</v>
+        <f t="shared" si="6"/>
+        <v>147</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="6"/>
-        <v>492.15</v>
+        <f t="shared" si="8"/>
+        <v>374.84999999999997</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>44088</v>
+        <v>44123</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>14580</v>
+        <v>15040</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="7"/>
-        <v>669</v>
+        <f t="shared" ref="D14:D21" si="9">SUM(C14,-C16)</f>
+        <v>460</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="6"/>
-        <v>3150.99</v>
+        <f t="shared" si="8"/>
+        <v>2166.6</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="8"/>
-        <v>3625.29</v>
+        <f t="shared" ref="G14:G20" si="10">SUM(F14,F15)</f>
+        <v>2658.75</v>
       </c>
       <c r="H14" s="8">
-        <v>3460</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -824,49 +824,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>6300</v>
+        <v>6493</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="7"/>
-        <v>186</v>
+        <f t="shared" si="9"/>
+        <v>193</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="6"/>
-        <v>474.29999999999995</v>
+        <f t="shared" si="8"/>
+        <v>492.15</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>44032</v>
+        <v>44088</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>13911</v>
+        <v>14580</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="7"/>
-        <v>265</v>
+        <f t="shared" si="9"/>
+        <v>669</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="6"/>
-        <v>1248.1500000000001</v>
+        <f t="shared" si="8"/>
+        <v>3150.99</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="8"/>
-        <v>1498.0500000000002</v>
+        <f t="shared" si="10"/>
+        <v>3625.29</v>
       </c>
       <c r="H16" s="8">
-        <v>1430</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -875,49 +875,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>6114</v>
+        <v>6300</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="7"/>
-        <v>98</v>
+        <f t="shared" si="9"/>
+        <v>186</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="6"/>
-        <v>249.89999999999998</v>
-      </c>
-      <c r="G17" s="3"/>
+        <f t="shared" si="8"/>
+        <v>474.29999999999995</v>
+      </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43985</v>
+        <v>44032</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>13646</v>
+        <v>13911</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="7"/>
-        <v>1082</v>
+        <f t="shared" si="9"/>
+        <v>265</v>
       </c>
       <c r="E18" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="6"/>
-        <v>4858.18</v>
+        <f t="shared" si="8"/>
+        <v>1248.1500000000001</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="8"/>
-        <v>5674.66</v>
+        <f t="shared" si="10"/>
+        <v>1498.0500000000002</v>
       </c>
       <c r="H18" s="8">
-        <v>5677</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -926,81 +926,132 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>6016</v>
+        <v>6114</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="7"/>
-        <v>336</v>
+        <f t="shared" si="9"/>
+        <v>98</v>
       </c>
       <c r="E19" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="6"/>
-        <v>816.48</v>
-      </c>
-      <c r="G19" s="8"/>
+        <f t="shared" si="8"/>
+        <v>249.89999999999998</v>
+      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43739</v>
+        <v>43985</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="10">
-        <v>12564</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="C20" s="3">
+        <v>13646</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="9"/>
+        <v>1082</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="8"/>
+        <v>4858.18</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="10"/>
+        <v>5674.66</v>
+      </c>
+      <c r="H20" s="8">
+        <v>5677</v>
+      </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="3">
+        <v>6016</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="9"/>
+        <v>336</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="8"/>
+        <v>816.48</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>43739</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10">
+        <v>12564</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10">
         <v>5680</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/200ee.xlsx
+++ b/sputnik/personal/ee/200ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.05.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -140,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -161,6 +169,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -441,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,31 +494,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44340</v>
+        <v>44373</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>20586</v>
+        <v>21000</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>547</v>
+        <v>414</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>2576.37</v>
+        <v>1949.94</v>
       </c>
       <c r="G2" s="11">
         <f>SUM(F2,F3)</f>
-        <v>3160.3199999999997</v>
+        <v>2686.89</v>
       </c>
       <c r="H2" s="11">
-        <v>3161</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -518,49 +527,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>9211</v>
+        <v>9500</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>583.94999999999993</v>
+        <v>736.94999999999993</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44302</v>
+        <v>44340</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>20039</v>
+        <v>20586</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>1089</v>
+        <v>547</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>5129.1899999999996</v>
+        <v>2576.37</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>6610.74</v>
+        <v>3160.3199999999997</v>
       </c>
       <c r="H4" s="11">
-        <v>6620</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -569,49 +578,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>8982</v>
+        <v>9211</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>581</v>
+        <v>229</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>1481.55</v>
+        <v>583.94999999999993</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44258</v>
+        <v>44302</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>18950</v>
+        <v>20039</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>940</v>
+        <v>1089</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>4427.3999999999996</v>
+        <v>5129.1899999999996</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>5646.2999999999993</v>
+        <v>6610.74</v>
       </c>
       <c r="H6" s="11">
-        <v>4085</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -620,49 +629,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>8401</v>
+        <v>8982</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>478</v>
+        <v>581</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>1218.8999999999999</v>
+        <v>1481.55</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44235</v>
+        <v>44258</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>18010</v>
+        <v>18950</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D13" si="6">SUM(C8,-C10)</f>
-        <v>1608</v>
+        <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
+        <v>940</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>7573.68</v>
-      </c>
-      <c r="G8" s="8">
+        <v>4427.3999999999996</v>
+      </c>
+      <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>9603.48</v>
-      </c>
-      <c r="H8" s="8">
-        <v>9600</v>
+        <v>5646.2999999999993</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4085</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -671,49 +680,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>7923</v>
+        <v>8401</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="6"/>
-        <v>796</v>
+        <v>478</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="7"/>
-        <v>2029.8</v>
+        <v>1218.8999999999999</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44193</v>
+        <v>44235</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>16402</v>
+        <v>18010</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="6"/>
-        <v>1022</v>
+        <f t="shared" ref="D10:D15" si="8">SUM(C10,-C12)</f>
+        <v>1608</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F21" si="8">D10*E10</f>
-        <v>4813.62</v>
+        <f t="shared" ref="F10:F11" si="9">D10*E10</f>
+        <v>7573.68</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>6055.4699999999993</v>
+        <v>9603.48</v>
       </c>
       <c r="H10" s="8">
-        <v>6057</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -722,49 +731,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>7127</v>
+        <v>7923</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="6"/>
-        <v>487</v>
+        <f t="shared" si="8"/>
+        <v>796</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="8"/>
-        <v>1241.8499999999999</v>
+        <f t="shared" si="9"/>
+        <v>2029.8</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44148</v>
+        <v>44193</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>15380</v>
+        <v>16402</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="6"/>
-        <v>340</v>
+        <f t="shared" si="8"/>
+        <v>1022</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="8"/>
-        <v>1601.4</v>
+        <f t="shared" ref="F12:F23" si="10">D12*E12</f>
+        <v>4813.62</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>1976.25</v>
+        <v>6055.4699999999993</v>
       </c>
       <c r="H12" s="8">
-        <v>1980</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -773,49 +782,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>6640</v>
+        <v>7127</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="6"/>
-        <v>147</v>
+        <f t="shared" si="8"/>
+        <v>487</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="8"/>
-        <v>374.84999999999997</v>
+        <f t="shared" si="10"/>
+        <v>1241.8499999999999</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>44123</v>
+        <v>44148</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>15040</v>
+        <v>15380</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D21" si="9">SUM(C14,-C16)</f>
-        <v>460</v>
+        <f t="shared" si="8"/>
+        <v>340</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="8"/>
-        <v>2166.6</v>
+        <f t="shared" si="10"/>
+        <v>1601.4</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" ref="G14:G20" si="10">SUM(F14,F15)</f>
-        <v>2658.75</v>
+        <f>SUM(F14,F15)</f>
+        <v>1976.25</v>
       </c>
       <c r="H14" s="8">
-        <v>2700</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -824,49 +833,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>6493</v>
+        <v>6640</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="9"/>
-        <v>193</v>
+        <f t="shared" si="8"/>
+        <v>147</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="8"/>
-        <v>492.15</v>
+        <f t="shared" si="10"/>
+        <v>374.84999999999997</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>44088</v>
+        <v>44123</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>14580</v>
+        <v>15040</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="9"/>
-        <v>669</v>
+        <f t="shared" ref="D16:D23" si="11">SUM(C16,-C18)</f>
+        <v>460</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="8"/>
-        <v>3150.99</v>
+        <f t="shared" si="10"/>
+        <v>2166.6</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="10"/>
-        <v>3625.29</v>
+        <f t="shared" ref="G16:G22" si="12">SUM(F16,F17)</f>
+        <v>2658.75</v>
       </c>
       <c r="H16" s="8">
-        <v>3460</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -875,49 +884,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>6300</v>
+        <v>6493</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="9"/>
-        <v>186</v>
+        <f t="shared" si="11"/>
+        <v>193</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="8"/>
-        <v>474.29999999999995</v>
+        <f t="shared" si="10"/>
+        <v>492.15</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>44032</v>
+        <v>44088</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>13911</v>
+        <v>14580</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="9"/>
-        <v>265</v>
+        <f t="shared" si="11"/>
+        <v>669</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="8"/>
-        <v>1248.1500000000001</v>
+        <f t="shared" si="10"/>
+        <v>3150.99</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="10"/>
-        <v>1498.0500000000002</v>
+        <f t="shared" si="12"/>
+        <v>3625.29</v>
       </c>
       <c r="H18" s="8">
-        <v>1430</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -926,49 +935,49 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>6114</v>
+        <v>6300</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="9"/>
-        <v>98</v>
+        <f t="shared" si="11"/>
+        <v>186</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="8"/>
-        <v>249.89999999999998</v>
-      </c>
-      <c r="G19" s="3"/>
+        <f t="shared" si="10"/>
+        <v>474.29999999999995</v>
+      </c>
+      <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43985</v>
+        <v>44032</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>13646</v>
+        <v>13911</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="9"/>
-        <v>1082</v>
+        <f t="shared" si="11"/>
+        <v>265</v>
       </c>
       <c r="E20" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="8"/>
-        <v>4858.18</v>
+        <f t="shared" si="10"/>
+        <v>1248.1500000000001</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="10"/>
-        <v>5674.66</v>
+        <f t="shared" si="12"/>
+        <v>1498.0500000000002</v>
       </c>
       <c r="H20" s="8">
-        <v>5677</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -977,81 +986,141 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>6016</v>
+        <v>6114</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="9"/>
-        <v>336</v>
+        <f t="shared" si="11"/>
+        <v>98</v>
       </c>
       <c r="E21" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="8"/>
-        <v>816.48</v>
-      </c>
-      <c r="G21" s="8"/>
+        <f t="shared" si="10"/>
+        <v>249.89999999999998</v>
+      </c>
+      <c r="G21" s="3"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43739</v>
+        <v>43985</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="10">
-        <v>12564</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="C22" s="3">
+        <v>13646</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="11"/>
+        <v>1082</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="10"/>
+        <v>4858.18</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="12"/>
+        <v>5674.66</v>
+      </c>
+      <c r="H22" s="8">
+        <v>5677</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="3">
+        <v>6016</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="11"/>
+        <v>336</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="10"/>
+        <v>816.48</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>43739</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10">
+        <v>12564</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="10">
         <v>5680</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="8">
+        <f>SUM(G2:G25)</f>
+        <v>49196.2</v>
+      </c>
+      <c r="H26" s="8">
+        <f>SUM(H2:H25)</f>
+        <v>47460</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="12">
+        <f>SUM(H26,-G26)</f>
+        <v>-1736.1999999999971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/200ee.xlsx
+++ b/sputnik/personal/ee/200ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 16.12.2021\16.12.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 16.12.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,31 +494,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44373</v>
+        <v>44515</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>21000</v>
+        <v>22100</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>414</v>
+        <v>1100</v>
       </c>
       <c r="E2" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1949.94</v>
+        <v>5456</v>
       </c>
       <c r="G2" s="11">
         <f>SUM(F2,F3)</f>
-        <v>2686.89</v>
+        <v>6528</v>
       </c>
       <c r="H2" s="11">
-        <v>2690</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -527,49 +527,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>736.94999999999993</v>
+        <v>1072</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44340</v>
+        <v>44373</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>20586</v>
+        <v>21000</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>547</v>
+        <v>414</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>2576.37</v>
+        <v>1949.94</v>
       </c>
       <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
-        <v>3160.3199999999997</v>
+        <v>2686.89</v>
       </c>
       <c r="H4" s="11">
-        <v>3161</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -578,49 +578,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>9211</v>
+        <v>9500</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>583.94999999999993</v>
+        <v>736.94999999999993</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44302</v>
+        <v>44340</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>20039</v>
+        <v>20586</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
-        <v>1089</v>
+        <v>547</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>5129.1899999999996</v>
+        <v>2576.37</v>
       </c>
       <c r="G6" s="11">
         <f>SUM(F6,F7)</f>
-        <v>6610.74</v>
+        <v>3160.3199999999997</v>
       </c>
       <c r="H6" s="11">
-        <v>6620</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -629,49 +629,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>8982</v>
+        <v>9211</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>581</v>
+        <v>229</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>1481.55</v>
+        <v>583.94999999999993</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44258</v>
+        <v>44302</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>18950</v>
+        <v>20039</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D9" si="6">SUM(C8,-C10)</f>
-        <v>940</v>
+        <v>1089</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ref="F8:F9" si="7">D8*E8</f>
-        <v>4427.3999999999996</v>
+        <v>5129.1899999999996</v>
       </c>
       <c r="G8" s="11">
         <f>SUM(F8,F9)</f>
-        <v>5646.2999999999993</v>
+        <v>6610.74</v>
       </c>
       <c r="H8" s="11">
-        <v>4085</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -680,49 +680,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>8401</v>
+        <v>8982</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="6"/>
-        <v>478</v>
+        <v>581</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="7"/>
-        <v>1218.8999999999999</v>
+        <v>1481.55</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44235</v>
+        <v>44258</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>18010</v>
+        <v>18950</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D15" si="8">SUM(C10,-C12)</f>
-        <v>1608</v>
+        <f t="shared" ref="D10:D11" si="8">SUM(C10,-C12)</f>
+        <v>940</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ref="F10:F11" si="9">D10*E10</f>
-        <v>7573.68</v>
-      </c>
-      <c r="G10" s="8">
+        <v>4427.3999999999996</v>
+      </c>
+      <c r="G10" s="11">
         <f>SUM(F10,F11)</f>
-        <v>9603.48</v>
-      </c>
-      <c r="H10" s="8">
-        <v>9600</v>
+        <v>5646.2999999999993</v>
+      </c>
+      <c r="H10" s="11">
+        <v>4085</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -731,49 +731,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>7923</v>
+        <v>8401</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="8"/>
-        <v>796</v>
+        <v>478</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="9"/>
-        <v>2029.8</v>
+        <v>1218.8999999999999</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44193</v>
+        <v>44235</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>16402</v>
+        <v>18010</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="8"/>
-        <v>1022</v>
+        <f t="shared" ref="D12:D17" si="10">SUM(C12,-C14)</f>
+        <v>1608</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" ref="F12:F23" si="10">D12*E12</f>
-        <v>4813.62</v>
+        <f t="shared" ref="F12:F13" si="11">D12*E12</f>
+        <v>7573.68</v>
       </c>
       <c r="G12" s="8">
         <f>SUM(F12,F13)</f>
-        <v>6055.4699999999993</v>
+        <v>9603.48</v>
       </c>
       <c r="H12" s="8">
-        <v>6057</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -782,49 +782,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>7127</v>
+        <v>7923</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="8"/>
-        <v>487</v>
+        <f t="shared" si="10"/>
+        <v>796</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="10"/>
-        <v>1241.8499999999999</v>
+        <f t="shared" si="11"/>
+        <v>2029.8</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>44148</v>
+        <v>44193</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>15380</v>
+        <v>16402</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="8"/>
-        <v>340</v>
+        <f t="shared" si="10"/>
+        <v>1022</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="10"/>
-        <v>1601.4</v>
+        <f t="shared" ref="F14:F25" si="12">D14*E14</f>
+        <v>4813.62</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(F14,F15)</f>
-        <v>1976.25</v>
+        <v>6055.4699999999993</v>
       </c>
       <c r="H14" s="8">
-        <v>1980</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -833,49 +833,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>6640</v>
+        <v>7127</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="8"/>
-        <v>147</v>
+        <f t="shared" si="10"/>
+        <v>487</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="10"/>
-        <v>374.84999999999997</v>
+        <f t="shared" si="12"/>
+        <v>1241.8499999999999</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>44123</v>
+        <v>44148</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>15040</v>
+        <v>15380</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" ref="D16:D23" si="11">SUM(C16,-C18)</f>
-        <v>460</v>
+        <f t="shared" si="10"/>
+        <v>340</v>
       </c>
       <c r="E16" s="3">
         <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="10"/>
-        <v>2166.6</v>
+        <f t="shared" si="12"/>
+        <v>1601.4</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" ref="G16:G22" si="12">SUM(F16,F17)</f>
-        <v>2658.75</v>
+        <f>SUM(F16,F17)</f>
+        <v>1976.25</v>
       </c>
       <c r="H16" s="8">
-        <v>2700</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -884,49 +884,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>6493</v>
+        <v>6640</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="11"/>
-        <v>193</v>
+        <f t="shared" si="10"/>
+        <v>147</v>
       </c>
       <c r="E17" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="10"/>
-        <v>492.15</v>
+        <f t="shared" si="12"/>
+        <v>374.84999999999997</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>44088</v>
+        <v>44123</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>14580</v>
+        <v>15040</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="11"/>
-        <v>669</v>
+        <f t="shared" ref="D18:D25" si="13">SUM(C18,-C20)</f>
+        <v>460</v>
       </c>
       <c r="E18" s="3">
         <v>4.71</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="10"/>
-        <v>3150.99</v>
+        <f t="shared" si="12"/>
+        <v>2166.6</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="12"/>
-        <v>3625.29</v>
+        <f t="shared" ref="G18:G24" si="14">SUM(F18,F19)</f>
+        <v>2658.75</v>
       </c>
       <c r="H18" s="8">
-        <v>3460</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -935,49 +935,49 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>6300</v>
+        <v>6493</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="11"/>
-        <v>186</v>
+        <f t="shared" si="13"/>
+        <v>193</v>
       </c>
       <c r="E19" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="10"/>
-        <v>474.29999999999995</v>
+        <f t="shared" si="12"/>
+        <v>492.15</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>44032</v>
+        <v>44088</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="3">
-        <v>13911</v>
+        <v>14580</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="11"/>
-        <v>265</v>
+        <f t="shared" si="13"/>
+        <v>669</v>
       </c>
       <c r="E20" s="3">
         <v>4.71</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="10"/>
-        <v>1248.1500000000001</v>
+        <f t="shared" si="12"/>
+        <v>3150.99</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="12"/>
-        <v>1498.0500000000002</v>
+        <f t="shared" si="14"/>
+        <v>3625.29</v>
       </c>
       <c r="H20" s="8">
-        <v>1430</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -986,49 +986,49 @@
         <v>9</v>
       </c>
       <c r="C21" s="3">
-        <v>6114</v>
+        <v>6300</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="11"/>
-        <v>98</v>
+        <f t="shared" si="13"/>
+        <v>186</v>
       </c>
       <c r="E21" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="10"/>
-        <v>249.89999999999998</v>
-      </c>
-      <c r="G21" s="3"/>
+        <f t="shared" si="12"/>
+        <v>474.29999999999995</v>
+      </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43985</v>
+        <v>44032</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="3">
-        <v>13646</v>
+        <v>13911</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="11"/>
-        <v>1082</v>
+        <f t="shared" si="13"/>
+        <v>265</v>
       </c>
       <c r="E22" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="10"/>
-        <v>4858.18</v>
+        <f t="shared" si="12"/>
+        <v>1248.1500000000001</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="12"/>
-        <v>5674.66</v>
+        <f t="shared" si="14"/>
+        <v>1498.0500000000002</v>
       </c>
       <c r="H22" s="8">
-        <v>5677</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,90 +1037,141 @@
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>6016</v>
+        <v>6114</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="11"/>
-        <v>336</v>
+        <f t="shared" si="13"/>
+        <v>98</v>
       </c>
       <c r="E23" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="10"/>
-        <v>816.48</v>
-      </c>
-      <c r="G23" s="8"/>
+        <f t="shared" si="12"/>
+        <v>249.89999999999998</v>
+      </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
+        <v>43985</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>13646</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="13"/>
+        <v>1082</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="12"/>
+        <v>4858.18</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="14"/>
+        <v>5674.66</v>
+      </c>
+      <c r="H24" s="8">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6016</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="13"/>
+        <v>336</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="12"/>
+        <v>816.48</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>43739</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10">
         <v>12564</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="10">
         <v>5680</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="8">
-        <f>SUM(G2:G25)</f>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="8">
+        <f>SUM(G4:G27)</f>
         <v>49196.2</v>
       </c>
-      <c r="H26" s="8">
-        <f>SUM(H2:H25)</f>
+      <c r="H28" s="8">
+        <f>SUM(H4:H27)</f>
         <v>47460</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="12">
-        <f>SUM(H26,-G26)</f>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="12">
+        <f>SUM(H28,-G28)</f>
         <v>-1736.1999999999971</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
